--- a/medicine/Enfance/Philippe_Barbeau/Philippe_Barbeau.xlsx
+++ b/medicine/Enfance/Philippe_Barbeau/Philippe_Barbeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Barbeau est un auteur de littérature de jeunesse né le 16 juin 1952 à Blois, également conteur.
 Il réside dans le Doubs, à quelques kilomètres de Besançon.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parues chez La poule qui pond
 Graines de montagne (2016), illustré par Etienne Pageault
@@ -529,7 +543,7 @@
 Le Résistant de Trotte-Menu (coll Histoire et société, 2011), coécrit avec Christian Couty), illustré par Stéphanie Hans
 Parues chez Hatier
 Course poursuite à la Bastille (coll "Hatier poche - Les enquêteurs du Net" 2009), illustré par Jérôme Brasseur
-Sur une île inconnue avec Christophe Colomb (coll "Hatier poche - Les enquêteurs du Net" 2008), illustré par Jérôme Brasseur[1]
+Sur une île inconnue avec Christophe Colomb (coll "Hatier poche - Les enquêteurs du Net" 2008), illustré par Jérôme Brasseur
 Attaques à Lascaux (coll "Hatier poche - Les enquêteurs du Net" 2008), illustré par Jérôme Brasseur
 Mystères à la cour de Louis XIV (coll "Hatier poche - Les enquêteurs du Net" 2008), illustré par Jérôme Brasseur
 Il faut sauver Laika! (coll "Hatier poche - Les enqueteurs du Net" 2010), illustré par Jérome Brasseur
